--- a/BalanceSheet/MXIM_bal.xlsx
+++ b/BalanceSheet/MXIM_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>18950000.0</v>
+        <v>242000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4042000.0</v>
+        <v>261000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-5986000.0</v>
+        <v>266000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-34562000.0</v>
+        <v>260000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3308000.0</v>
+        <v>221000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>223958000.0</v>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-719000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>8945000.0</v>
+        <v>97000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-3423000.0</v>
+        <v>87000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>5405000.0</v>
+        <v>92000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-2655000.0</v>
+        <v>84000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>89449000.0</v>
@@ -4295,7 +4295,7 @@
         <v>-634000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>-729000000.0</v>
+        <v>-779897000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>-800423000.0</v>
@@ -4422,7 +4422,7 @@
         <v>1052000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1054000000.0</v>
+        <v>1003303000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>992944000.0</v>
